--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sustaita\Documents\MasterCyTec\Diseño de sistemas distribuidos\distrib-simgrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE02946E-F535-490F-8D2A-93A04FBD0FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC2110-FE44-4B56-8C4D-4C230DA62663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{95AA972F-B3E1-4826-AB5F-48F32D6BA446}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95AA972F-B3E1-4826-AB5F-48F32D6BA446}"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatorio" sheetId="1" r:id="rId1"/>
@@ -70,50 +70,50 @@
     <t>Aleatorio_ljf</t>
   </si>
   <si>
-    <t>Aleatorio_sjf</t>
-  </si>
-  <si>
     <t>Ciclico_fcfs</t>
   </si>
   <si>
     <t>Ciclico_ljf</t>
   </si>
   <si>
-    <t>Ciclico_sjf</t>
-  </si>
-  <si>
     <t>Sqf_fcfs</t>
   </si>
   <si>
     <t>Sqf_ljf</t>
   </si>
   <si>
-    <t>Sqf_sjf</t>
-  </si>
-  <si>
     <t>Trc_fcfs</t>
   </si>
   <si>
     <t>Trc_ljf</t>
   </si>
   <si>
-    <t>Trc_sjf</t>
-  </si>
-  <si>
     <t>Trrrc_fcfs</t>
   </si>
   <si>
     <t>Trrrc_ljf</t>
   </si>
   <si>
-    <t>Trrrc_sjf</t>
+    <t>Aleatorio_stf</t>
+  </si>
+  <si>
+    <t>Ciclico_stf</t>
+  </si>
+  <si>
+    <t>Sqf_stf</t>
+  </si>
+  <si>
+    <t>Trc_stf</t>
+  </si>
+  <si>
+    <t>Trrrc_stf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -184,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F03482-3B16-4C0A-82EA-A887CDFAE21C}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +714,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -812,7 +821,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +835,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -918,7 +927,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1010,7 +1019,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1115,7 +1124,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1221,7 +1230,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1313,7 +1322,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1418,7 +1427,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1524,7 +1533,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1616,7 +1625,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1718,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B18CE-D4C5-40CB-8D27-AC09E40F2BC1}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1827,7 +1836,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2008,6 +2017,9 @@
       <c r="E20" s="4">
         <v>200000</v>
       </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2016,5 +2028,6 @@
     <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>